--- a/src/main/resources/birka_GSV.xlsx
+++ b/src/main/resources/birka_GSV.xlsx
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,39 +240,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -283,18 +292,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,7 +598,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,96 +608,96 @@
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
